--- a/Data/Barranquilla/CityInfo.xlsx
+++ b/Data/Barranquilla/CityInfo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive - Universidad de Los Andes\Covid19\MinCiencias\Nueva carpeta\Data\Barranquilla\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\OneDrive - Universidad de Los Andes\Covid19\MinCiencias\Modelo-Metapoblacional\Data\Barranquilla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60933F5E-E686-439C-83AB-C601ABACCC82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425EBB92-9EFF-4C6F-95B8-5ADEC676AE05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8A486107-F9C0-4FB6-9218-8ADBDF7AE505}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Barranquilla</t>
   </si>
@@ -102,6 +102,27 @@
   </si>
   <si>
     <t>Hosp Cap N5</t>
+  </si>
+  <si>
+    <t>nShifts</t>
+  </si>
+  <si>
+    <t>tSim</t>
+  </si>
+  <si>
+    <t>dateLockDown</t>
+  </si>
+  <si>
+    <t>nStages</t>
+  </si>
+  <si>
+    <t>dateRelaxing1</t>
+  </si>
+  <si>
+    <t>dateRelaxing2</t>
+  </si>
+  <si>
+    <t>dateRelaxing3</t>
   </si>
 </sst>
 </file>
@@ -137,8 +158,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,15 +475,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07573812-96D3-40B8-91D2-915B36DE4C57}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -566,7 +588,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -574,7 +596,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -582,7 +604,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -590,7 +612,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -598,7 +620,63 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43915</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43983</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
